--- a/ig/ch-emed-epr/CdTyp9ToCHEMEDEPRTimeQuantityUnitCode.xlsx
+++ b/ig/ch-emed-epr/CdTyp9ToCHEMEDEPRTimeQuantityUnitCode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t>http://chmed.emediplan.ch/fhir/CodeSystem/chmed-codesystem-cdtyp9</t>
+    <t>https://index.hcisolutions.ch/index/current/get.aspx?schema=CODE&amp;keytype=CDTYP&amp;key=9</t>
   </si>
   <si>
     <t>Target</t>
